--- a/DragonDemo/design/config/RoleInfoConfig.xlsx
+++ b/DragonDemo/design/config/RoleInfoConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="RoleInfoConfig" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -100,6 +100,9 @@
     <t>拥有强大的近战攻击力，活跃在战斗的最前方。他们靠着强劲的力量和过人的体力轻松粉碎敌人的防御</t>
   </si>
   <si>
+    <t>Role_warrior</t>
+  </si>
+  <si>
     <t>Prefabs/ZJ_zhanshi_SkinnedMesh</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
     <t>强大的远程攻击能力，擅长在后方发动奇袭。她们行动迅捷，依靠多样的远程攻击解决战斗</t>
   </si>
   <si>
+    <t>Role_archer</t>
+  </si>
+  <si>
     <t>Prefabs/Player_archer_SkinnedMesh</t>
   </si>
   <si>
@@ -142,6 +148,9 @@
     <t>擅于操纵寒冰，火焰，黑暗，光明法术的能力。擅长使用大范围的打击和控制技能，一次性消灭大量的敌人</t>
   </si>
   <si>
+    <t>Role_sorceress</t>
+  </si>
+  <si>
     <t>Prefabs/Player_sorceress_SkinnedMesh</t>
   </si>
   <si>
@@ -163,6 +172,9 @@
     <t>拥有强大的防御力和治疗恢复魔法，在队伍中负责保护队友。虽攻击力较弱，却能利用多种多样的辅助魔法灵活应对各种情况</t>
   </si>
   <si>
+    <t>Role_cleric</t>
+  </si>
+  <si>
     <t>Prefabs/Player_cleric_SkinnedMesh</t>
   </si>
   <si>
@@ -181,6 +193,9 @@
     <t>掌握着尖端的科学技术，可以调制神奇的炼金药剂，同时擅长用枪械重炮轰击敌人</t>
   </si>
   <si>
+    <t>Role_academic</t>
+  </si>
+  <si>
     <t>Prefabs/Player_academic_SkinnedMesh</t>
   </si>
   <si>
@@ -196,6 +211,9 @@
     <t>温润纯良的少年意外被未来的自己附体。来自于另外一个时空的他杀意肆虐、嗜血疯狂</t>
   </si>
   <si>
+    <t>Role_assassin</t>
+  </si>
+  <si>
     <t>Prefabs/Player_assassin_SkinnedMesh</t>
   </si>
   <si>
@@ -209,6 +227,9 @@
   </si>
   <si>
     <t>来自沙漠村落的妖娆舞者，满怀对灭门仇敌的憎恨，踏上复仇之路</t>
+  </si>
+  <si>
+    <t>Role_kali</t>
   </si>
   <si>
     <t>Prefabs/Player_kali_SkinnedMesh</t>
@@ -1389,13 +1410,14 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E6" sqref="E6"/>
+      <selection pane="topRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="27.3333333333333" customWidth="1"/>
-    <col min="3" max="4" width="9.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="3" max="3" width="9.66666666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.1111111111111" customWidth="1"/>
     <col min="5" max="5" width="41.1111111111111" customWidth="1"/>
     <col min="6" max="14" width="16" customWidth="1"/>
     <col min="15" max="15" width="74.3333333333333" customWidth="1"/>
@@ -1467,7 +1489,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>15</v>
@@ -1602,23 +1624,23 @@
       <c r="C5" s="1">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>0</v>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="1">
         <v>29.25</v>
@@ -1630,10 +1652,10 @@
         <v>20.45</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V5" s="1">
         <v>2</v>
@@ -1644,25 +1666,25 @@
         <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="1">
         <v>45</v>
       </c>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="D6" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="Q6" s="1">
         <v>30.02</v>
@@ -1674,10 +1696,10 @@
         <v>20.46</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V6" s="1">
         <v>3</v>
@@ -1688,28 +1710,28 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="1">
         <v>52</v>
       </c>
-      <c r="D7" s="1">
-        <v>2</v>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="1">
         <v>29.58</v>
@@ -1721,10 +1743,10 @@
         <v>20.81</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="V7" s="1">
         <v>4</v>
@@ -1735,28 +1757,28 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1">
         <v>42</v>
       </c>
-      <c r="D8" s="1">
-        <v>3</v>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="1">
         <v>28.84</v>
@@ -1768,10 +1790,10 @@
         <v>20.637</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="V8" s="1">
         <v>2</v>
@@ -1782,25 +1804,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="D9" s="1">
-        <v>4</v>
+      <c r="D9" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="1">
         <v>28.34</v>
@@ -1812,10 +1834,10 @@
         <v>20.39</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="V9" s="1">
         <v>2</v>
@@ -1826,28 +1848,28 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1">
         <v>21</v>
       </c>
-      <c r="D10" s="1">
-        <v>5</v>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="1">
         <v>30.37</v>
@@ -1859,10 +1881,10 @@
         <v>20.33</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="V10" s="1">
         <v>3</v>
@@ -1873,25 +1895,25 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C11" s="1">
         <v>16</v>
       </c>
-      <c r="D11" s="1">
-        <v>6</v>
+      <c r="D11" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="1">
         <v>27.99</v>
@@ -1903,10 +1925,10 @@
         <v>20.01</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="V11" s="1">
         <v>3</v>
